--- a/results/TEST_1_percentage_table.xlsx
+++ b/results/TEST_1_percentage_table.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,6 +49,9 @@
       <name val="Calibri"/>
       <color rgb="0045455d"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -95,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -114,6 +117,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -482,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +499,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
@@ -603,106 +612,103 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-    </row>
-    <row r="9"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+    </row>
     <row r="10"/>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>P1 - Test question 1</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="E15" s="6" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0.06666666666666667</v>
@@ -711,125 +717,139 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B18" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>P2 - Test question 2</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="3" t="inlineStr">
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>P1 - Test question 1</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>P4 - Example Category 1</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Man</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Woman</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>0.2535211267605634</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0.1690140845070423</v>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>0.08450704225352113</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="n">
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>0.2253521126760563</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C26" s="6" t="n">
         <v>0.1126760563380282</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D26" s="6" t="n">
         <v>0.1126760563380282</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>0.2957746478873239</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0.1971830985915493</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>0.09859154929577464</v>
-      </c>
-    </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>8</v>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
       </c>
       <c r="B27" s="6" t="n">
         <v>0.2253521126760563</v>
@@ -842,250 +862,261 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
-      <c r="D28" s="8" t="n"/>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>0.2957746478873239</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0.09859154929577464</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0.1690140845070423</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0.08450704225352113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>0.4084507042253521</v>
+      </c>
+    </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>P2 - Test question 2</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="3" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Footer // This table was calculated by a variable operation P2 - Test question 2 * Expansion_factor</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+    </row>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>P1 - Test question 1</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>0.2535211267605634</v>
-      </c>
-      <c r="C34" s="6" t="n">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>0.08450704225352113</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>0.2253521126760563</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <v>0.1126760563380282</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>0.1126760563380282</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>0.2957746478873239</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="E36" s="6" t="n">
-        <v>0.09859154929577464</v>
-      </c>
-    </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>8</v>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="B37" s="6" t="n">
         <v>0.2253521126760563</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.1126760563380282</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>0.1126760563380282</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0</v>
+        <v>0.1126760563380282</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
-    </row>
-    <row r="39"/>
-    <row r="40"/>
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>0.2253521126760563</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>0.2957746478873239</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.09859154929577464</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>0.2535211267605634</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0.08450704225352113</v>
+      </c>
+    </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.2957746478873239</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0.2957746478873239</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Footer // This table was calculated by a variable operation P2 - Test question 2 * Expansion_factor</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="10" t="n"/>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>P3 - Test question 3</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="2" t="n"/>
-      <c r="D41" s="2" t="n"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="3" t="inlineStr">
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>P4 - Example Category 1</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>Man</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>Woman</t>
         </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C44" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>Chevrolet</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C46" s="6" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t>Honda</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6" t="n">
-        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
@@ -1101,217 +1132,202 @@
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>Subaru</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="B51" s="6" t="n">
+      <c r="B55" s="6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C55" s="6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D51" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="inlineStr">
+      <c r="D55" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B52" s="8" t="n"/>
-      <c r="C52" s="8" t="n"/>
-      <c r="D52" s="8" t="n"/>
-    </row>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="B57" s="10" t="n"/>
+      <c r="C57" s="10" t="n"/>
+      <c r="D57" s="10" t="n"/>
+    </row>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>P3 - Test question 3</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n"/>
-      <c r="C55" s="2" t="n"/>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="C56" s="3" t="inlineStr">
+      <c r="B60" s="2" t="n"/>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>BMW</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C58" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>Chevrolet</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C59" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C60" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="E60" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="inlineStr">
-        <is>
-          <t>Honda</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C61" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C62" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D62" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>Subaru</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6" t="n">
         <v>0</v>
@@ -1320,72 +1336,186 @@
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Subaru</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
           <t>Toyota</t>
         </is>
       </c>
-      <c r="B65" s="6" t="n">
+      <c r="B70" s="6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="C65" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="n">
+      <c r="C70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="n">
         <v>0.1538461538461539</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="7" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B66" s="8" t="n"/>
-      <c r="C66" s="8" t="n"/>
-      <c r="D66" s="8" t="n"/>
-      <c r="E66" s="8" t="n"/>
+      <c r="B72" s="10" t="n"/>
+      <c r="C72" s="10" t="n"/>
+      <c r="D72" s="10" t="n"/>
+      <c r="E72" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1397,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,337 +1616,407 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="8" t="n"/>
-    </row>
-    <row r="7"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+    </row>
     <row r="8"/>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>P4 - Example Category 1</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="D13" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-    </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="3" t="inlineStr">
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>P4 - Example Category 1</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Man</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Woman</t>
         </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="D22" s="6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B23" s="8" t="n"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
-    </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+    </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="3" t="inlineStr">
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>P5 - Example Category 2</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Var</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B32" s="6" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C32" s="6" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B33" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="C30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6" t="n">
+      <c r="C33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="E30" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B34" s="6" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="C34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
-      <c r="E32" s="8" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/TEST_1_percentage_table.xlsx
+++ b/results/TEST_1_percentage_table.xlsx
@@ -68,8 +68,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c3b6a1"/>
-        <bgColor rgb="00c3b6a1"/>
+        <fgColor rgb="00C5D9F1"/>
+        <bgColor rgb="00C5D9F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,15 +83,15 @@
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
       <bottom style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </bottom>
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
     </border>
   </borders>
